--- a/xlsx/世界遗产_intext.xlsx
+++ b/xlsx/世界遗产_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
   <si>
     <t>世界遗产</t>
   </si>
@@ -29,7 +29,7 @@
     <t>联合国</t>
   </si>
   <si>
-    <t>政策_政策_美國_世界遗产</t>
+    <t>政策_政策_美国_世界遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%95%99%E8%82%B2%E7%A7%91%E5%AD%A6%E6%96%87%E5%8C%96%E7%BB%84%E7%BB%87</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E5%90%88%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>複合遺產</t>
+    <t>复合遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%96%87%E5%8C%96%E7%B4%80%E5%BF%B5%E7%89%A9%E8%88%87%E6%AD%B7%E5%8F%B2%E5%A0%B4%E6%89%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>國際文化紀念物與歷史場所委員會</t>
+    <t>国际文化纪念物与历史场所委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%BB%84%E7%BB%87</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>世界遺產委員會</t>
+    <t>世界遗产委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%89%A9%E8%B3%AA%E6%96%87%E5%8C%96%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>非物質文化遺產</t>
+    <t>非物质文化遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E4%BF%9D%E8%AD%B7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>世界自然保護聯盟</t>
+    <t>世界自然保护联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>太平洋地區</t>
+    <t>太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -455,9 +455,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
   </si>
   <si>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2%E6%95%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國世界遺產數列表</t>
+    <t>各国世界遗产数列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%85%B0%E6%A0%BC%E5%B0%94%E5%B2%9B%E8%87%AA%E7%84%B6%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
@@ -503,19 +500,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8F%B2%E7%88%BE%E9%90%B5%E5%A1%94</t>
   </si>
   <si>
-    <t>艾菲爾鐵塔</t>
+    <t>艾菲尔铁塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E7%BE%9A%E7%BE%8A%E4%BF%9D%E8%AD%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>阿拉伯羚羊保護區</t>
+    <t>阿拉伯羚羊保护区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%A8%81%E5%A4%8F%E5%AF%BA</t>
@@ -551,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%B2%81%E7%BB%B4%E6%B5%8B%E5%9C%B0%E5%BC%A7</t>
@@ -563,25 +557,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
+    <t>爱沙尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -599,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6</t>
   </si>
   <si>
-    <t>摩爾多瓦</t>
+    <t>摩尔多瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E6%97%A7%E5%9F%8E</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%B1%B3%E6%8F%9A%E5%A4%A7%E4%BD%9B</t>
   </si>
   <si>
-    <t>巴米揚大佛</t>
+    <t>巴米扬大佛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -641,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
+    <t>叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A7%86%E5%8F%A4%E5%9F%8E</t>
@@ -701,9 +695,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E7%BD%97</t>
   </si>
   <si>
@@ -731,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AF%BA%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
@@ -779,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E8%B5%AB%E7%BA%B3</t>
@@ -857,9 +848,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
   </si>
   <si>
-    <t>芬兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%BE%BE%E4%BD%A9%E6%96%AF</t>
   </si>
   <si>
@@ -905,9 +893,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E5%B8%82</t>
   </si>
   <si>
@@ -929,13 +914,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴西利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BD%BC%E5%BE%97%E5%A0%A1</t>
   </si>
   <si>
-    <t>聖彼得堡</t>
+    <t>圣彼得堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%BE%B9</t>
@@ -953,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%81%A9</t>
@@ -983,13 +965,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1001,15 +980,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%89%A9%E8%B4%A8%E6%96%87%E5%8C%96%E9%81%97%E4%BA%A7</t>
   </si>
   <si>
-    <t>非物质文化遗产</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%97%E4%BA%A7%E8%AF%84%E5%AE%9A%E5%87%86%E5%88%99</t>
   </si>
   <si>
@@ -1037,19 +1013,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>世界遺產</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界遺產列表</t>
+    <t>世界遗产列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1061,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3520,7 +3493,7 @@
         <v>145</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
@@ -3546,10 +3519,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3575,10 +3548,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3604,10 +3577,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3633,10 +3606,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3662,10 +3635,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3691,10 +3664,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3720,10 +3693,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3749,10 +3722,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3778,10 +3751,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3807,10 +3780,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3836,10 +3809,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3865,10 +3838,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3894,10 +3867,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -3923,10 +3896,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3952,10 +3925,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3981,10 +3954,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4010,10 +3983,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4039,10 +4012,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4068,10 +4041,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4097,10 +4070,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4126,10 +4099,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4155,10 +4128,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4184,10 +4157,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4213,10 +4186,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4242,10 +4215,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4271,10 +4244,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4300,10 +4273,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4329,10 +4302,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4358,10 +4331,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4387,10 +4360,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4416,10 +4389,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4445,10 +4418,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4474,10 +4447,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4503,10 +4476,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4532,10 +4505,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4561,10 +4534,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4590,10 +4563,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4619,10 +4592,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4648,10 +4621,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4677,10 +4650,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4706,10 +4679,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4735,10 +4708,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4764,10 +4737,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4793,10 +4766,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4822,10 +4795,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4851,10 +4824,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4880,10 +4853,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4909,10 +4882,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4938,10 +4911,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4967,10 +4940,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -4996,10 +4969,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5025,10 +4998,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5054,10 +5027,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5083,10 +5056,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5112,10 +5085,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5141,10 +5114,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5170,10 +5143,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5199,10 +5172,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5228,10 +5201,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5257,10 +5230,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5286,10 +5259,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5315,10 +5288,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5344,10 +5317,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5373,10 +5346,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5402,10 +5375,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5431,10 +5404,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5460,10 +5433,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5489,10 +5462,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5518,10 +5491,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5547,10 +5520,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5576,10 +5549,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5605,10 +5578,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5634,10 +5607,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5663,10 +5636,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5692,10 +5665,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5721,10 +5694,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5750,10 +5723,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5779,10 +5752,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5808,10 +5781,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5837,10 +5810,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5866,10 +5839,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5895,10 +5868,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5924,10 +5897,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5953,10 +5926,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5982,10 +5955,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6011,10 +5984,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6040,10 +6013,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6069,10 +6042,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>100</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6098,10 +6071,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6127,10 +6100,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6156,10 +6129,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6185,10 +6158,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6214,10 +6187,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6243,10 +6216,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6272,10 +6245,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6301,10 +6274,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>6</v>
@@ -6330,10 +6303,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
         <v>40</v>
@@ -6359,10 +6332,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>10</v>
@@ -6388,10 +6361,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F172" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6417,10 +6390,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F173" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6446,10 +6419,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F174" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6475,10 +6448,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F175" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6504,10 +6477,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>152</v>
+      </c>
+      <c r="F176" t="s">
         <v>153</v>
-      </c>
-      <c r="F176" t="s">
-        <v>154</v>
       </c>
       <c r="G176" t="n">
         <v>4</v>
@@ -6533,10 +6506,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -6562,10 +6535,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6591,10 +6564,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>

--- a/xlsx/世界遗产_intext.xlsx
+++ b/xlsx/世界遗产_intext.xlsx
@@ -29,7 +29,7 @@
     <t>联合国</t>
   </si>
   <si>
-    <t>政策_政策_美國_世界遗产</t>
+    <t>体育运动_体育运动_奥林匹亚_世界遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%95%99%E8%82%B2%E7%A7%91%E5%AD%A6%E6%96%87%E5%8C%96%E7%BB%84%E7%BB%87</t>
